--- a/artfynd/A 32640-2022.xlsx
+++ b/artfynd/A 32640-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -908,6 +908,119 @@
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112088271</v>
+      </c>
+      <c r="B4" t="n">
+        <v>98446</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>222771</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Svart trolldruva</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Actaea spicata</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>S om Idegransreservatet, Öl</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>619889.018100369</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6346803.221470654</v>
+      </c>
+      <c r="S4" t="n">
+        <v>25</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Borgholm</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Öland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Böda</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Pontus Axén</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Pontus Axén</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 32640-2022.xlsx
+++ b/artfynd/A 32640-2022.xlsx
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Pontus Axén</t>
+          <t>Pontus Axén, Ellen Nordström</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>

--- a/artfynd/A 32640-2022.xlsx
+++ b/artfynd/A 32640-2022.xlsx
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>619889.018100369</v>
+        <v>619889</v>
       </c>
       <c r="R4" t="n">
-        <v>6346803.221470654</v>
+        <v>6346803</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -984,19 +984,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 32640-2022.xlsx
+++ b/artfynd/A 32640-2022.xlsx
@@ -913,7 +913,7 @@
         <v>112088271</v>
       </c>
       <c r="B4" t="n">
-        <v>98446</v>
+        <v>98872</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>

--- a/artfynd/A 32640-2022.xlsx
+++ b/artfynd/A 32640-2022.xlsx
@@ -913,7 +913,7 @@
         <v>112088271</v>
       </c>
       <c r="B4" t="n">
-        <v>98872</v>
+        <v>98891</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
